--- a/src/data-generation/EOS_ver.1.1._2020.xlsx
+++ b/src/data-generation/EOS_ver.1.1._2020.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockStructure="1" workbookAlgorithmName="SHA-512" workbookHashValue="XFfpsaa/mf30OClaFC100KlA8vmj3Ddvc/mXwcHnfZto4zc262g6vvQhz2JSiaH+5OZ+z2rfUUwMGHKd1afZ5g==" workbookSaltValue="roTG0/QTZxcPNnVqipnNsA==" workbookSpinCount="100000"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="813" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="How to use the EOS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Step 1 - Basic data" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Step 1 - VEC and Persistence" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Step 1 - Oil spill modelling" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Step 1 background data" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="Step 2 - Pollution Assessment" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Step 2 - OSR pros_cons" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Step 2 background data" sheetId="8" state="hidden" r:id="rId8"/>
-    <sheet name="Step 3 - Effect index (E)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Step 3 - Soot pollution index" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Step 3 - Recovery time" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Step 3 - Recruitment_Fractions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Step 3 background data" sheetId="13" state="hidden" r:id="rId13"/>
-    <sheet name="Step 4 - ISB" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Step 4 - CD" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Step 4 - MR" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Step 4 - DN" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Step 4 - Background" sheetId="18" state="hidden" r:id="rId18"/>
-    <sheet name="Step 5 - Results" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="How to use the EOS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 1 - Basic data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 1 - VEC and Persistence" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 1 - Oil spill modelling" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 1 background data" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 2 - Pollution Assessment" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 2 - OSR pros_cons" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 2 background data" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 3 - Effect index (E)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 3 - Soot pollution index" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 3 - Recovery time" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 3 - Recruitment_Fractions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 3 background data" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 4 - ISB" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 4 - CD" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 4 - MR" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 4 - DN" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 4 - Background" sheetId="18" state="hidden" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Step 5 - Results" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="Decision_tree_result">'Step 4 - Background'!$B$2:$B$4</definedName>
@@ -52,8 +52,8 @@
     <definedName name="DefaultUptakeBird">'Step 1 background data'!$J$10</definedName>
     <definedName name="DefaultZooplanktonLC50">'Step 1 background data'!$J$3</definedName>
     <definedName name="DefaultZooplanktonNEC">'Step 1 background data'!$K$3</definedName>
+    <definedName name="Persistence">'Step 1 background data'!$X$2:$X$10</definedName>
     <definedName name="OLE_LINK1" localSheetId="1">'Step 1 - Basic data'!$S$9</definedName>
-    <definedName name="Persistence">'Step 1 background data'!$X$2:$X$10</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -2146,7 +2146,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F13:F16 H14:H16 F25 F9 F10 F11 F12" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Select yes or no"/>
+    <dataValidation sqref="F9 F10 F11 F12 F13:F16 F25 H14:H16" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Select yes or no"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -2279,16 +2279,16 @@
         </is>
       </c>
       <c r="D8" s="52" t="n">
-        <v>0.8197792352568658</v>
+        <v>1.781267767988125</v>
       </c>
       <c r="E8" s="52" t="n">
-        <v>1.28318755968607</v>
+        <v>0.646469116322837</v>
       </c>
       <c r="F8" s="52" t="n">
-        <v>1.148137526819416</v>
+        <v>1.194663163368721</v>
       </c>
       <c r="G8" s="52" t="n">
-        <v>1.925407424289008</v>
+        <v>1.025054271263494</v>
       </c>
       <c r="H8" s="128" t="inlineStr">
         <is>
@@ -2553,11 +2553,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" algorithmName="SHA-512" sheet="1" objects="1" insertRows="0" insertHyperlinks="1" autoFilter="1" scenarios="1" formatColumns="1" deleteColumns="1" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="1" saltValue="LBgYgxNHBfgsofG0Yex8vw==" formatRows="1" sort="1" spinCount="100000" hashValue="aJyegRvSjThMp3QqCL0y5lkRhOCos91wpyL39eo2uF/Bpp7+0252W5P2vrhMWvjgIwXpJG5KimNPtx3M29vIIw=="/>
   <dataValidations count="3">
-    <dataValidation sqref="D15" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Enter a value or select default value" type="list">
+    <dataValidation sqref="D15" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter a value or select default value" type="list">
       <formula1>"+DefaultRecover"</formula1>
     </dataValidation>
-    <dataValidation sqref="D20:G23" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Select yes or no"/>
-    <dataValidation sqref="D16" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Enter a value or select default value"/>
+    <dataValidation sqref="D20:G23" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Select yes or no"/>
+    <dataValidation sqref="D16" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter a value or select default value"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9" scale="82"/>
@@ -3031,7 +3031,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" algorithmName="SHA-512" sheet="1" objects="1" insertRows="0" insertHyperlinks="1" autoFilter="1" scenarios="1" formatColumns="1" deleteColumns="1" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="1" saltValue="muNLCDjkK+9aBySBNdTjCg==" formatRows="1" sort="1" spinCount="100000" hashValue="L/m3Z+XEBfHAka11GNxiuQDgezOG2rnGVCwUJjBhQ9bAF3a581Ryuc8G6rW4KK6ycZBwvInOVWJh/NMVzvkVMw=="/>
   <dataValidations count="1">
-    <dataValidation sqref="E15:E18 J16 G15:G18 F16 I15:I18 K15:K18 H16" showErrorMessage="1" showInputMessage="1" allowBlank="1"/>
+    <dataValidation sqref="E15:E18 F16 G15:G18 H16 I15:I18 J16 K15:K18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9" scale="80"/>
@@ -3474,7 +3474,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="D34:G34" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Select from list" type="list">
+    <dataValidation sqref="D34:G34" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Select from list" type="list">
       <formula1>Decision_tree_result</formula1>
     </dataValidation>
   </dataValidations>
@@ -3734,7 +3734,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="D34:G34" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Select from list" type="list">
+    <dataValidation sqref="D34:G34" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Select from list" type="list">
       <formula1>Decision_tree_result</formula1>
     </dataValidation>
   </dataValidations>
@@ -3990,7 +3990,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="D34:G34" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Select from list" type="list">
+    <dataValidation sqref="D34:G34" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Select from list" type="list">
       <formula1>Decision_tree_result</formula1>
     </dataValidation>
   </dataValidations>
@@ -4250,7 +4250,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="D34:G34" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Select from list" type="list">
+    <dataValidation sqref="D34:G34" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Select from list" type="list">
       <formula1>Decision_tree_result</formula1>
     </dataValidation>
   </dataValidations>
@@ -4587,7 +4587,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" algorithmName="SHA-512" sheet="1" objects="1" insertRows="0" insertHyperlinks="1" autoFilter="1" scenarios="1" formatColumns="1" deleteColumns="1" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="1" saltValue="WhovxjKMfqZX3yyPGXlKwA==" formatRows="1" sort="1" spinCount="100000" hashValue="/SGx3S5jG4xmmnB+phE7zl8mOpsZAXd6tZ8klgAJWkErtZhX+IhnNwt3L4AAEeKyAnTlbf9y50jjda6O4IxTBg=="/>
-  <conditionalFormatting sqref="E7 G7 I7 K7 E9 G9 I9 K9 E11 G11 I11 K11 E13 G13 I13 K13">
+  <conditionalFormatting sqref="E7 E9 E11 E13 G7 G9 G11 G13 I7 I9 I11 I13 K7 K9 K11 K13">
     <cfRule type="containsText" priority="1" operator="containsText" dxfId="2" text="Consider">
       <formula>NOT(ISERROR(SEARCH("Consider",E7)))</formula>
     </cfRule>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="E11" s="52" t="n">
-        <v>93.45030047423916</v>
+        <v>40.03550892747404</v>
       </c>
       <c r="F11" s="128" t="n"/>
       <c r="G11" s="128" t="n"/>
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="E12" s="52" t="n">
-        <v>9.345030047423917</v>
+        <v>4.003550892747405</v>
       </c>
       <c r="F12" s="128" t="n"/>
       <c r="G12" s="128" t="n"/>
@@ -4878,7 +4878,7 @@
         </is>
       </c>
       <c r="E13" s="52" t="n">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="F13" s="128" t="n"/>
       <c r="G13" s="128" t="n"/>
@@ -4904,7 +4904,7 @@
         </is>
       </c>
       <c r="E14" s="52" t="n">
-        <v>46.72515023711958</v>
+        <v>20.01775446373702</v>
       </c>
       <c r="F14" s="128" t="n"/>
       <c r="G14" s="128" t="n"/>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="E15" s="52" t="n">
-        <v>4.672515023711958</v>
+        <v>2.001775446373702</v>
       </c>
       <c r="F15" s="128" t="n"/>
       <c r="G15" s="128" t="n"/>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="E20" s="52" t="n">
-        <v>3.738012018969566</v>
+        <v>1.601420357098962</v>
       </c>
       <c r="F20" s="128" t="n"/>
       <c r="G20" s="52" t="n"/>
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="E21" s="52" t="n">
-        <v>37.38012018969567</v>
+        <v>16.01420357098962</v>
       </c>
       <c r="F21" s="128" t="n"/>
       <c r="G21" s="52" t="n"/>
@@ -5320,13 +5320,13 @@
         </is>
       </c>
       <c r="E32" s="52" t="n">
-        <v>0.1938011183540143</v>
+        <v>0.4247315911290484</v>
       </c>
       <c r="F32" s="52" t="n">
-        <v>0.6611029214766937</v>
+        <v>0.2546849650471046</v>
       </c>
       <c r="G32" s="52" t="n">
-        <v>0.1418898940260958</v>
+        <v>0.07466109625021843</v>
       </c>
       <c r="I32" s="128" t="n"/>
       <c r="J32" s="60" t="n"/>
@@ -5495,33 +5495,33 @@
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" algorithmName="SHA-512" sheet="1" objects="0" insertRows="0" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="1" saltValue="4b8eCsjYu+wVyNlUh4z/qg==" formatRows="1" sort="1" spinCount="100000" hashValue="c1Ad4PbTXxPRr5Jjk6F08+2qwFZBla5KkSrZ7Q00DSN3nf3TOLn+j2k+RyHv87pPEu1IAjivXk52Rq/Qrw3BpA=="/>
   <dataValidations xWindow="1088" yWindow="698" count="11">
-    <dataValidation sqref="E33" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Enter value or use default value" type="list">
+    <dataValidation sqref="E33" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter value or use default value" type="list">
       <formula1>"+DefaultZooplanktonLC50"</formula1>
     </dataValidation>
-    <dataValidation sqref="E32" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Enter value or use default value_x000a_" type="list">
+    <dataValidation sqref="E32" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter value or use default value_x000a_" type="list">
       <formula1>"+DefaultZooplanktonNEC"</formula1>
     </dataValidation>
-    <dataValidation sqref="F33" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Enter value or use default value" type="list">
+    <dataValidation sqref="F33" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter value or use default value" type="list">
       <formula1>"+DefaultBivalvesLC50"</formula1>
     </dataValidation>
-    <dataValidation sqref="F32" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Enter value or use default value" type="list">
+    <dataValidation sqref="F32" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter value or use default value" type="list">
       <formula1>"+DefaultBivalvesNEC"</formula1>
     </dataValidation>
-    <dataValidation sqref="G33" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Enter value or use default value" type="list">
+    <dataValidation sqref="G33" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter value or use default value" type="list">
       <formula1>"+DefaultFishEC50"</formula1>
     </dataValidation>
-    <dataValidation sqref="G32" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Enter value or use default value" type="list">
+    <dataValidation sqref="G32" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter value or use default value" type="list">
       <formula1>"+DefaultFishNEC"</formula1>
     </dataValidation>
-    <dataValidation sqref="E37" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Enter a value or use default" type="list">
+    <dataValidation sqref="E37" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter a value or use default" type="list">
       <formula1>"+DefaultDamageBird"</formula1>
     </dataValidation>
-    <dataValidation sqref="E38" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Enter a value or use default" type="list">
+    <dataValidation sqref="E38" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter a value or use default" type="list">
       <formula1>"+DefaultUptakeBird"</formula1>
     </dataValidation>
-    <dataValidation sqref="E39" showErrorMessage="1" showDropDown="1" showInputMessage="1" allowBlank="0"/>
-    <dataValidation sqref="E41" showErrorMessage="1" showDropDown="1" showInputMessage="1" allowBlank="0" prompt="Enter a value or use default"/>
-    <dataValidation sqref="E40" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Enter a value or use default"/>
+    <dataValidation sqref="E39" showDropDown="1" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
+    <dataValidation sqref="E41" showDropDown="1" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter a value or use default"/>
+    <dataValidation sqref="E40" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter a value or use default"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -6231,7 +6231,7 @@
       <c r="M13" s="73" t="n"/>
       <c r="N13" s="73" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O13" s="128" t="n"/>
@@ -6239,10 +6239,10 @@
         <v>1</v>
       </c>
       <c r="Q13" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="73" t="n">
         <v>1</v>
-      </c>
-      <c r="R13" s="73" t="n">
-        <v>0</v>
       </c>
       <c r="S13" s="73" t="n">
         <v>0</v>
@@ -8046,38 +8046,38 @@
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" algorithmName="SHA-512" sheet="1" objects="1" insertRows="0" insertHyperlinks="1" autoFilter="1" scenarios="1" formatColumns="1" deleteColumns="1" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="1" saltValue="uFdtELt6+r7CNzq63HNWOQ==" formatRows="1" sort="1" spinCount="100000" hashValue="VMfN/RkzHH4xMQB2A93NmIpG/TEH6rtpzhwgt8zA9yWO8b/joI+alA0mShH/FvcJwausDR70s0VI6zI26VbBmw=="/>
   <mergeCells count="20">
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="AE37:AH37"/>
+    <mergeCell ref="AE11:AH11"/>
+    <mergeCell ref="E37:N37"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="AE39:AH39"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="Z39:AC39"/>
     <mergeCell ref="K11:M11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="AE11:AH11"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="Z39:AC39"/>
-    <mergeCell ref="AE39:AH39"/>
-    <mergeCell ref="E37:N37"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="AE37:AH37"/>
   </mergeCells>
   <dataValidations xWindow="123" yWindow="509" count="4">
-    <dataValidation sqref="O13:O31" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="O13:O31" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>$E$9:$E$10</formula1>
     </dataValidation>
-    <dataValidation sqref="C13:C31" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Insert species or chose a default " type="list">
+    <dataValidation sqref="C13:C31" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Insert species or chose a default " type="list">
       <formula1>DefaultSpecies</formula1>
     </dataValidation>
-    <dataValidation sqref="C41:C46" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Insert shoreline type or select from list" type="list">
+    <dataValidation sqref="C41:C46" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Insert shoreline type or select from list" type="list">
       <formula1>Persistence</formula1>
     </dataValidation>
-    <dataValidation sqref="D13:D31" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Insert species or chose a default "/>
+    <dataValidation sqref="D13:D31" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Insert species or chose a default "/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -9130,7 +9130,7 @@
         </is>
       </c>
       <c r="D16" s="52" t="n">
-        <v>3</v>
+        <v>3448</v>
       </c>
       <c r="E16" s="84" t="n"/>
       <c r="F16" s="52" t="n"/>
@@ -9198,7 +9198,7 @@
       <c r="C17" s="128" t="n"/>
       <c r="D17" s="128" t="inlineStr">
         <is>
-          <t>SMALL</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="E17" s="128" t="n"/>
@@ -9641,7 +9641,7 @@
         </is>
       </c>
       <c r="D22" s="52" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E22" s="128" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         </is>
       </c>
       <c r="D23" s="52" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E23" s="128" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="D24" s="52" t="n">
-        <v>0.1157794726072464</v>
+        <v>0.3001326208172237</v>
       </c>
       <c r="E24" s="128" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         </is>
       </c>
       <c r="D25" s="52" t="n">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="E25" s="128" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         </is>
       </c>
       <c r="D28" s="52" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E28" s="128" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         </is>
       </c>
       <c r="D29" s="52" t="n">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="E29" s="128" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         </is>
       </c>
       <c r="D30" s="52" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E30" s="128" t="inlineStr">
         <is>
@@ -12013,19 +12013,19 @@
         </is>
       </c>
       <c r="D41" s="52" t="n">
-        <v>450</v>
+        <v>287</v>
       </c>
       <c r="E41" s="52" t="n">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="F41" s="52" t="n">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="G41" s="52" t="n">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="H41" s="52" t="n">
-        <v>1003</v>
+        <v>903</v>
       </c>
       <c r="I41" s="52" t="n">
         <v>10</v>
@@ -12044,7 +12044,7 @@
       <c r="N41" s="52" t="n"/>
       <c r="O41" s="128" t="n"/>
       <c r="P41" s="52" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="Q41" s="128" t="n"/>
       <c r="R41" s="128" t="n"/>
@@ -13132,16 +13132,16 @@
         </is>
       </c>
       <c r="D57" s="52" t="n">
-        <v>196</v>
+        <v>376</v>
       </c>
       <c r="E57" s="52" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F57" s="52" t="n">
-        <v>141</v>
+        <v>473</v>
       </c>
       <c r="G57" s="52" t="n">
-        <v>106</v>
+        <v>377</v>
       </c>
       <c r="H57" s="52" t="inlineStr">
         <is>
@@ -14119,11 +14119,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="392" yWindow="645" count="3">
-    <dataValidation sqref="D37" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Enter a value or choose default" type="list">
+    <dataValidation sqref="D37" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter a value or choose default" type="list">
       <formula1>"+DefaultSimulationLength"</formula1>
     </dataValidation>
-    <dataValidation sqref="D26 I26 N26 S26 X26 AC26 AH26 AM26 AR26 AW26 BB26" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="Calculates the rate based on oil amount and duration"/>
-    <dataValidation sqref="N41:N51" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D26 I26 N26 S26 X26 AC26 AH26 AM26 AR26 AW26 BB26" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Calculates the rate based on oil amount and duration"/>
+    <dataValidation sqref="N41:N51" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"+Default_Evap_Nat.Disp"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15290,7 +15290,7 @@
       </c>
       <c r="E32" s="52" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="N32" s="30" t="n"/>
@@ -15598,15 +15598,15 @@
         </is>
       </c>
       <c r="F11" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="inlineStr">
+        <is>
+          <t>Prevent the natural dispersion process</t>
+        </is>
+      </c>
+      <c r="J11" s="91" t="n">
         <v>1</v>
-      </c>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Prevent the natural dispersion process</t>
-        </is>
-      </c>
-      <c r="J11" s="91" t="n">
-        <v>0</v>
       </c>
       <c r="L11" s="10" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         </is>
       </c>
       <c r="R11" s="91" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="37" t="n"/>
     </row>
@@ -15647,7 +15647,7 @@
         </is>
       </c>
       <c r="F13" s="91" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="R13" s="91" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="37" t="n"/>
     </row>
@@ -15697,7 +15697,7 @@
       </c>
       <c r="E15" s="9" t="n"/>
       <c r="F15" s="91" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="9" t="n"/>
       <c r="I15" s="9" t="inlineStr">
@@ -15706,7 +15706,7 @@
         </is>
       </c>
       <c r="J15" s="91" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L15" s="9" t="n"/>
       <c r="M15" s="9" t="inlineStr">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="Q15" s="9" t="n"/>
       <c r="R15" s="91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T15" s="36" t="n"/>
     </row>
@@ -15750,7 +15750,7 @@
         </is>
       </c>
       <c r="F17" s="91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="9" t="n"/>
       <c r="I17" s="9" t="inlineStr">
@@ -15777,7 +15777,7 @@
         </is>
       </c>
       <c r="R17" s="91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T17" s="36" t="n"/>
     </row>
@@ -15812,20 +15812,20 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="P9:R9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:S10"/>
   </mergeCells>
   <dataValidations xWindow="638" yWindow="1061" count="3">
-    <dataValidation sqref="F11 F13 F15 R11 R13 R15 J11 N11" showErrorMessage="1" showInputMessage="1" allowBlank="1" error="Should be 1, 0.5, 0, -0.5 or -1" prompt="Select default or enter a value" type="list" errorStyle="information">
+    <dataValidation sqref="F11 F13 F15 J11 N11 R11 R13 R15" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" error="Should be 1, 0.5, 0, -0.5 or -1" prompt="Select default or enter a value" type="list" errorStyle="information">
       <formula1>"+Default_1"</formula1>
     </dataValidation>
-    <dataValidation sqref="N13" showErrorMessage="1" showInputMessage="1" allowBlank="1" error="Should be 1, 0.5, 0, -0.5 or -1" prompt="Select default or enter a value" type="list" errorStyle="information">
+    <dataValidation sqref="N13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" error="Should be 1, 0.5, 0, -0.5 or -1" prompt="Select default or enter a value" type="list" errorStyle="information">
       <formula1>"+Default_0"</formula1>
     </dataValidation>
-    <dataValidation sqref="F17 J13 R17 J15 J17 N15 N17" showErrorMessage="1" showInputMessage="1" allowBlank="1" error="Should be 1, 0.5, 0, -0.5 or -1" prompt="Select default or enter a value" type="list" errorStyle="information">
+    <dataValidation sqref="F17 J13 J15 J17 N15 N17 R17" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" error="Should be 1, 0.5, 0, -0.5 or -1" prompt="Select default or enter a value" type="list" errorStyle="information">
       <formula1>"+Default_minus1"</formula1>
     </dataValidation>
   </dataValidations>
